--- a/Data/EC/NIT-9005325514.xlsx
+++ b/Data/EC/NIT-9005325514.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F39AAF7B-D7FF-4EF4-88A1-26DB39F7EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50200A99-5A4D-499E-B642-112E7F53651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{808D12F0-E712-43FA-BEE5-535BBD817015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7F6D93C9-5097-40E9-90B5-779FB70B372E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,154 +71,154 @@
     <t>ELOY GUILLERMO BAHOQUE PORRAS</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1143353249</t>
+  </si>
+  <si>
+    <t>WILMER JOSE MADERO OROZCO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1143353249</t>
-  </si>
-  <si>
-    <t>WILMER JOSE MADERO OROZCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +317,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +532,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +576,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9BDFD0-2850-7F94-6636-F37677788B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF2A59-B4C0-BD01-B3C8-A66E9CF21068}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E69199E-0407-44DA-A172-0EE28F2F0708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6341E7B8-11E1-4755-ADE4-18661D73C0A5}">
   <dimension ref="B2:J97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1161,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>38666</v>
+        <v>14755</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>6250</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1434,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1526,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1595,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1618,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1641,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1664,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1681,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1727,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1756,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1773,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1802,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1819,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1848,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1865,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1894,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1911,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1940,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1957,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1986,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2003,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F53" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2032,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2078,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2095,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2124,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2141,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2170,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2187,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F61" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2216,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
         <v>1000000</v>
@@ -2233,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F63" s="18">
-        <v>14755</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2256,19 +2256,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F64" s="18">
-        <v>30208</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2279,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2302,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2325,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2348,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2371,19 +2371,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2394,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2417,19 +2417,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2440,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2463,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2486,19 +2486,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2509,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2532,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2555,19 +2555,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2578,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2601,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2624,19 +2624,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2647,19 +2647,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2670,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2693,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2716,19 +2716,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2739,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2762,19 +2762,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G86" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2785,19 +2785,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2808,19 +2808,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G88" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2854,19 +2854,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>38666</v>
       </c>
       <c r="G90" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2877,19 +2877,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D91" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="22" t="s">
-        <v>49</v>
-      </c>
       <c r="F91" s="24">
-        <v>6250</v>
+        <v>30208</v>
       </c>
       <c r="G91" s="24">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
